--- a/EPI Problem Tracking.xlsx
+++ b/EPI Problem Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EPIJudge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F3AAB4-2814-4BC2-BA6D-B836C1F398EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70E270-8732-4E0E-ADCC-31251FE7D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Problem</t>
   </si>
@@ -173,6 +173,76 @@
   <si>
     <t>1. Use a modified binary search algorithm. Don't stop searching once you've found a match. Instead update the candidate set based on the relationship between the mid point value and the key. If you find the key at the mid-point, you are only interested in the values to the left of the midpoint and you can discard the values to the right of the mid-point. Use two ints to keep track of the lower and upper bounds of the candidate set. If the mid point is less than the key, then update lower to 1 plus the middle index. If the midpoint is equal to the key, then update the return value and then set the upper boundary to midpoint-1 (discard right half). If the midpoint is greater than the k, then update upper value to midpoint -1. Time complexity: O(logn), space complexity: O(1).
 2. Use a modified binary search algorithm - however, when the key is equal to the midpoint set the return value to M (last occurrence seen) and then recursively call the same function on the array.subset(Lower, M). Time complexity: O(logn), space complexity: O(1).</t>
+  </si>
+  <si>
+    <t>Compute the Intersection of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Key Insights</t>
+  </si>
+  <si>
+    <t>Utitilize the fact that BOTH arrays are sorted.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Use the built-in Java libraries to very quickly solve the problem using A.retainAll(B) - O(n^2) space complexity. Doesn't utilize the fact that both arrays are sorted.
+2. Iterate through the items of the shorter list and check that each item exists in the longer list using binary search. O(nlogm). Only utilizes one of the sorted lists. This is the fastest option if one list is much shorter than the other list.
+3. If both lists are about equal in length then use this strategy. Create two indexes to iterate over the two lists, compare the items at each iterator, if one is less than the other, then increment the index of the list with the smaller element as it can be safely ignored. If the two items are equal check if it is a duplicate value (!A.get(i).equals(A.get(i-1))), if it is not then add it to the result array. Time cimplexity is O(n+m) and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">utilizes the fact that both arrays are sorted. </t>
+    </r>
+  </si>
+  <si>
+    <t>Test if a Binary Tree Satisfies the BST Property</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>1. Remember that when initializating a new PiriorityQueue, you need to pass a custom comparator into the constructor if you are using custom objects in the queue.  Example: (o1, o2) -&gt; Integer.compare(o1.node.data, o2.node.data)
+2. For breadth first search, a queue can be handy. For depth first search, a stack is useful.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Use a recursive strategy - check that the minimum in right subtree is greater than parent node and that the maximum in left subtree is less than parent node. If both checks pass, recursively check the roots right and left nodes. TC: O(n^2).
+2. Use ranges - for each node, recognize that the value of that node must fall between a lower and upper limit. Check that the node falls within the correct range, if it does, then recursively check it's children. If any children fail to fall within the correct range then return false. To keep track of the ranges, either pass them as arguments in the recursive function or create a modified node class that keeps track of the lower and upper boundary for each node in the node itself. TC: O(n), SC: O(h) for call stack space implicility allocated.
+3. Use an inorder tree traversal: traverse the binary tree with an inorder traversal and return the result. If the result is in increasing order, then it is a BST if A.get(i) &lt; A.get(i-1) then it is not a BST. TC: O(n), SC: O(n). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simplest method to remember and implement.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Use a Queue to do a depth first search in combination with the ranges approach in method 2. Start by adding the root node to a queue, while the queue is not empty, check that the next value falls within its correct range, if it does then add it's children to the queue with their ranges. If any of the items fails to fall within its given range return false. Utilize a customQueueEntry to store the node, and its upper and lower limits for use in the priorityQueue. In the best case this outperforms method 2. TC: O(n), SC: O(n). </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -236,7 +306,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -272,13 +345,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F12" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D4BF11D6-B686-4E1D-AD60-C64EE1EBD9D8}" name="Problem"/>
     <tableColumn id="2" xr3:uid="{18BD0209-A429-41AC-93E0-DDA96B17629B}" name="Name"/>
     <tableColumn id="3" xr3:uid="{F45F75B3-19E7-49EF-8ECF-EF1532C83388}" name="Topics"/>
-    <tableColumn id="4" xr3:uid="{49297663-BB20-4588-B220-93DC3394241B}" name="Strategies" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{49297663-BB20-4588-B220-93DC3394241B}" name="Strategies" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E8FC0EAC-D1DF-4FFB-BBB4-630F2BB6EA0D}" name="Key Insights" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{31070AEE-1431-4BFB-85AE-5892FABDC34B}" name="Time Spent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -548,22 +622,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="101.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +652,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -593,11 +671,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.6</v>
       </c>
@@ -610,11 +688,12 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.1</v>
       </c>
@@ -627,11 +706,12 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.1</v>
       </c>
@@ -644,11 +724,12 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.1</v>
       </c>
@@ -661,11 +742,12 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.1</v>
       </c>
@@ -678,11 +760,12 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.1</v>
       </c>
@@ -695,11 +778,12 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11.1</v>
       </c>
@@ -712,11 +796,12 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12.1</v>
       </c>
@@ -729,8 +814,43 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14.1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/EPI Problem Tracking.xlsx
+++ b/EPI Problem Tracking.xlsx
@@ -2,31 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EPIJudge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70E270-8732-4E0E-ADCC-31251FE7D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC5276-E25D-4965-81C4-4098C07FC257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Problem</t>
   </si>
@@ -243,6 +252,18 @@
       <t xml:space="preserve">
 4. Use a Queue to do a depth first search in combination with the ranges approach in method 2. Start by adding the root node to a queue, while the queue is not empty, check that the next value falls within its correct range, if it does then add it's children to the queue with their ranges. If any of the items fails to fall within its given range return false. Utilize a customQueueEntry to store the node, and its upper and lower limits for use in the priorityQueue. In the best case this outperforms method 2. TC: O(n), SC: O(n). </t>
     </r>
+  </si>
+  <si>
+    <t>The Towers of Hanoi Problem</t>
+  </si>
+  <si>
+    <t>Difficulty Level</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>For three pegs do the following to solve the problem: 1. Move all but the last ring from 1 to 3, using 2 as an intermediary. 2. Move the last ring from 1 to 2. 3. Move the remaining rings from 3 to 2 using 1 as an intermediary. Those three steps form the three lines of the recursive portion of the algorithm. In the main function that calls the recursive portion create a list of Stacks (Deque) to mimic the LIFO property of the pegs. Pass the pegs, number of rings, toPeg, from Peg, usingPeg, and result array into the recursive function.  Time complexity: O(2^n)</t>
   </si>
 </sst>
 </file>
@@ -345,15 +366,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F12" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G13" xr:uid="{A3D7E685-48C0-410A-8272-02B5455755F2}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D4BF11D6-B686-4E1D-AD60-C64EE1EBD9D8}" name="Problem"/>
     <tableColumn id="2" xr3:uid="{18BD0209-A429-41AC-93E0-DDA96B17629B}" name="Name"/>
     <tableColumn id="3" xr3:uid="{F45F75B3-19E7-49EF-8ECF-EF1532C83388}" name="Topics"/>
     <tableColumn id="4" xr3:uid="{49297663-BB20-4588-B220-93DC3394241B}" name="Strategies" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{E8FC0EAC-D1DF-4FFB-BBB4-630F2BB6EA0D}" name="Key Insights" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{31070AEE-1431-4BFB-85AE-5892FABDC34B}" name="Time Spent"/>
+    <tableColumn id="6" xr3:uid="{7D771595-5166-4FE3-9FF9-C94982E28346}" name="Difficulty Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,10 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +661,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +680,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -675,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.6</v>
       </c>
@@ -693,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.1</v>
       </c>
@@ -711,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.1</v>
       </c>
@@ -729,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.1</v>
       </c>
@@ -747,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.1</v>
       </c>
@@ -765,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.1</v>
       </c>
@@ -783,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11.1</v>
       </c>
@@ -801,7 +827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12.1</v>
       </c>
@@ -819,7 +845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.1</v>
       </c>
@@ -836,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14.1</v>
       </c>
@@ -851,6 +877,24 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15.1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EPI Problem Tracking.xlsx
+++ b/EPI Problem Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EPIJudge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC5276-E25D-4965-81C4-4098C07FC257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E49A5-C910-4806-AC8B-7EAD7E85E500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Problem</t>
   </si>
@@ -264,6 +264,11 @@
   </si>
   <si>
     <t>For three pegs do the following to solve the problem: 1. Move all but the last ring from 1 to 3, using 2 as an intermediary. 2. Move the last ring from 1 to 2. 3. Move the remaining rings from 3 to 2 using 1 as an intermediary. Those three steps form the three lines of the recursive portion of the algorithm. In the main function that calls the recursive portion create a list of Stacks (Deque) to mimic the LIFO property of the pegs. Pass the pegs, number of rings, toPeg, from Peg, usingPeg, and result array into the recursive function.  Time complexity: O(2^n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To generate the three stacks needed for the three pegs, use this cool piece of code:
+List&lt;Deque&lt;Integer&gt;&gt; pegs = IntStream.range(0, NUM_PEGS).mapToObj(i-&gt; new ArrayDeque&lt;Integer&gt;()).collect(Collectors.toList());
+</t>
   </si>
 </sst>
 </file>
@@ -648,7 +653,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +897,9 @@
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G13">
         <v>3</v>
       </c>
